--- a/WBT ques.xlsx
+++ b/WBT ques.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Agile" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="502">
   <si>
     <t xml:space="preserve"> Automation tool has to be selected based on --------</t>
   </si>
@@ -1278,9 +1278,6 @@
     <t>Hudson</t>
   </si>
   <si>
-    <t>Cucumber</t>
-  </si>
-  <si>
     <t>C:/m2./repository</t>
   </si>
   <si>
@@ -1397,6 +1394,309 @@
   </si>
   <si>
     <t>Both 1 &amp; 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> State whether TRUE or FALSE:
+Agile methods seem to work best when team members have a relatively high skill level.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> State whether TRUE or FALSE:
+Agility is defined as the ability of a project team to respond rapidly to a change.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> State whether TRUE or FALSE:
+Burndown chart shows how much work was left to do over a period of time</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> State whether TRUE or FALSE:
+Burnup chart shows the progress of stories over a period of time</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> State whether TRUE or FALSE:
+In Agile, Scrum teams allow change into their spirints</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> State whether TRUE or FALSE:
+In Agile, the Product Owner is required to attend the Daily Scrum.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> State whether TRUE or FALSE:
+Scrum does not prescribe any engineering practices</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> State whether TRUE or FALSE:
+The Product Vision is a short and high level description of why we are building the Product.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> What are the roles in a scrum team?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> What testing is done during Agile?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Who is an agile coach?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Agile Software Development is based on a) Incremental Development, b) Iterative Development, c) Linear Development, d) Waterfall Model</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> How often do the team meet in a true scrum?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> In Agile, who decides the release dates?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> State whether TRUE or FALSE:
+A detailed Product Requirements Document will improve the Scrum Team’s ability to respond to customer needs</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> State whether TRUE or FALSE:
+Exploratory testing is used in Agile methodology</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> State whether TRUE or FALSE:
+For a large project, a Scrum Team may require more than one Product Owner.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> State whether TRUE or FALSE:
+In Agile, Product owner represents the Voice of the Customer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> State whether TRUE or FALSE:
+In Agile, Sprint can last for more than six months</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> State whether TRUE or FALSE:
+It is possible to find the defects early in Agile?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> State whether TRUE or FALSE:
+Product Owner keeps the scrum team productive and learning</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> State whether TRUE or FALSE:
+SprintZero is to perform research after completing all the spirints</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> State whether TRUE or FALSE:
+Stakeholders are encouraged to request changes directly to the Delivery Team to save time for the Product Owner</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> State whether TRUE or FALSE:
+The main purpose of the Sprint Review is to get Product feedback from the stakeholders</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> State whether TRUE or FALSE:
+The Product Owner is a member of the Scrum Team</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> State whether TRUE or FALSE:
+The ScrumMaster can make priority decisions on behalf of the Product Owner.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> State whether TRUE or FALSE:
+The ScrumMaster controls the product development budget</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> What are the activities of a scrum team?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> What is re-factoring?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> What is standup in Agile?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> What is the appropriate standup meeting duration in Agile?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> What is XP in agile?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> What would be the head count of a scrum team in Agile?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Which of the below is the software development models?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Which of the below options are correct?
+A. Epic is a customer described software feature that is itemized in the product backlog
+B. User stories are broken down into tasks
+C. User Stories descripes the project or business functions and is delivered in a particular sprint as expected</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Which of the listed options are agile terminologies?</t>
+  </si>
+  <si>
+    <t>Product Owner, Scrum Master</t>
+  </si>
+  <si>
+    <t>Product Owner, Scrum Master, Developmet Team</t>
+  </si>
+  <si>
+    <t>Product Owner, Development Team</t>
+  </si>
+  <si>
+    <t>Development Team, Scrum Master</t>
+  </si>
+  <si>
+    <t>Exploratory Testing</t>
+  </si>
+  <si>
+    <t>Regression Testing</t>
+  </si>
+  <si>
+    <t>Automated Unit Testing</t>
+  </si>
+  <si>
+    <t>User Acceptance Testing</t>
+  </si>
+  <si>
+    <t>Scrum master</t>
+  </si>
+  <si>
+    <t>Project manager</t>
+  </si>
+  <si>
+    <t>Teaching agile teams</t>
+  </si>
+  <si>
+    <t>a,b</t>
+  </si>
+  <si>
+    <t>a,b,c</t>
+  </si>
+  <si>
+    <t>a,b,c,d</t>
+  </si>
+  <si>
+    <t>a,d</t>
+  </si>
+  <si>
+    <t>Daily</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>Yearly</t>
+  </si>
+  <si>
+    <t>They wont sync up at all</t>
+  </si>
+  <si>
+    <t>Product Owner</t>
+  </si>
+  <si>
+    <t>Scrum Master and Product Owner</t>
+  </si>
+  <si>
+    <t>Scrum Team</t>
+  </si>
+  <si>
+    <t>Product backlog refinement</t>
+  </si>
+  <si>
+    <t>Sprint Planning, Daily Scrum</t>
+  </si>
+  <si>
+    <t>Sprint Review, Sprint Retrospective</t>
+  </si>
+  <si>
+    <t>All the listed options</t>
+  </si>
+  <si>
+    <t>To improve performance, existing code is modified but the code functionality remains unchanged</t>
+  </si>
+  <si>
+    <t>To create a new functionality</t>
+  </si>
+  <si>
+    <t>To change the code functionality by modifying the existing code.</t>
+  </si>
+  <si>
+    <t>Daily sync up sessions</t>
+  </si>
+  <si>
+    <t>Monthly meetings happen within the team</t>
+  </si>
+  <si>
+    <t>Monthly meetings with cross functional teams</t>
+  </si>
+  <si>
+    <t>Annual meetings</t>
+  </si>
+  <si>
+    <t>15 to 30 mins</t>
+  </si>
+  <si>
+    <t>2 to 3 hrs</t>
+  </si>
+  <si>
+    <t>3 to 4 hrs</t>
+  </si>
+  <si>
+    <t>1 to 2 hrs</t>
+  </si>
+  <si>
+    <t>Extreme programming</t>
+  </si>
+  <si>
+    <t>Extreme process</t>
+  </si>
+  <si>
+    <t>Enablement Process</t>
+  </si>
+  <si>
+    <t>Enablement programming</t>
+  </si>
+  <si>
+    <t>1 to 2</t>
+  </si>
+  <si>
+    <t>5 to 10</t>
+  </si>
+  <si>
+    <t>60 to 65</t>
+  </si>
+  <si>
+    <t>100 to 120</t>
+  </si>
+  <si>
+    <t>Waterfall model</t>
+  </si>
+  <si>
+    <t>Iterative model</t>
+  </si>
+  <si>
+    <t>Agile Model</t>
+  </si>
+  <si>
+    <t>Options A and B only</t>
+  </si>
+  <si>
+    <t>Options A, B and C</t>
+  </si>
+  <si>
+    <t>Options A and C only</t>
+  </si>
+  <si>
+    <t>Options B and C only</t>
+  </si>
+  <si>
+    <t>User Story</t>
+  </si>
+  <si>
+    <t>Sprint Backlog</t>
+  </si>
+  <si>
+    <t>Velocity</t>
+  </si>
+  <si>
+    <t>cucumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> None of the listed option</t>
   </si>
 </sst>
 </file>
@@ -1525,7 +1825,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
@@ -1573,6 +1873,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1854,13 +2157,726 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="63" style="7" customWidth="1"/>
+    <col min="3" max="3" width="32.28515625" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" customWidth="1"/>
+    <col min="6" max="6" width="31" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>450</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>451</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>453</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="19" t="s">
+        <v>433</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+    </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+    </row>
+    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1869,7 +2885,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1882,7 +2898,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>51</v>
@@ -1899,50 +2915,50 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>401</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>405</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>408</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>409</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>61</v>
@@ -1957,8 +2973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1993,8 +3009,8 @@
       <c r="C2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>53</v>
+      <c r="D2" s="23" t="b">
+        <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>53</v>
@@ -2125,6 +3141,18 @@
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>345</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>368</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>369</v>
+      </c>
+      <c r="E10" t="s">
+        <v>500</v>
+      </c>
+      <c r="F10" t="s">
+        <v>501</v>
       </c>
     </row>
   </sheetData>
@@ -2136,8 +3164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2153,14 +3181,14 @@
       <c r="A1" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>368</v>
+      <c r="C1" s="1" t="s">
+        <v>370</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>61</v>
@@ -2171,13 +3199,13 @@
         <v>354</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>61</v>
@@ -2188,13 +3216,13 @@
         <v>355</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>61</v>
@@ -2205,13 +3233,13 @@
         <v>356</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>61</v>
@@ -2222,16 +3250,16 @@
         <v>357</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>380</v>
+        <v>51</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>381</v>
+        <v>52</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>382</v>
+        <v>53</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
@@ -2245,7 +3273,7 @@
         <v>52</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>53</v>
@@ -2262,7 +3290,7 @@
         <v>52</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>53</v>
@@ -2341,16 +3369,16 @@
         <v>364</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>51</v>
+        <v>382</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>52</v>
+        <v>383</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>53</v>
+        <v>384</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -2358,13 +3386,13 @@
         <v>365</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>61</v>
@@ -2375,13 +3403,13 @@
         <v>366</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>61</v>
@@ -2392,31 +3420,23 @@
         <v>367</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C16" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2427,8 +3447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2875,7 +3895,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3338,8 +4358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
